--- a/src/test/resources/Analyst_Location_UAT.xlsx
+++ b/src/test/resources/Analyst_Location_UAT.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\VermaC\Documents\ui\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\VermaC\Documents\ui\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A35AAB5A-2F58-46EC-A55D-DED7A707D073}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F644707-21B5-4603-80BB-E73D0D4541FA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="9825" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="113">
   <si>
     <t>ANALYST_LOC_NM</t>
   </si>
@@ -155,36 +155,24 @@
     <t>US</t>
   </si>
   <si>
-    <t>TX</t>
-  </si>
-  <si>
     <t>Boston - One International Place</t>
   </si>
   <si>
     <t>11-SEP-20 08.08.31.221844000 PM</t>
   </si>
   <si>
-    <t>MA</t>
-  </si>
-  <si>
     <t>Chicago - 100 N Riverside Plaza</t>
   </si>
   <si>
     <t>11-SEP-20 08.08.31.225629000 PM</t>
   </si>
   <si>
-    <t>IL</t>
-  </si>
-  <si>
     <t>New York - 7 World Trade Center</t>
   </si>
   <si>
     <t>11-SEP-20 08.08.31.239115000 PM</t>
   </si>
   <si>
-    <t>NY</t>
-  </si>
-  <si>
     <t>San Francisco - One Front Street</t>
   </si>
   <si>
@@ -221,9 +209,6 @@
     <t>RU</t>
   </si>
   <si>
-    <t>MS</t>
-  </si>
-  <si>
     <t>Mexico City - Moody's de Mexico, SA de CV</t>
   </si>
   <si>
@@ -251,9 +236,6 @@
     <t>IT</t>
   </si>
   <si>
-    <t>LM</t>
-  </si>
-  <si>
     <t>Hong Kong - One Pacific Place</t>
   </si>
   <si>
@@ -281,9 +263,6 @@
     <t>GB</t>
   </si>
   <si>
-    <t>EN</t>
-  </si>
-  <si>
     <t>Paris - 96, boulevard Haussmann</t>
   </si>
   <si>
@@ -308,9 +287,6 @@
     <t>ES</t>
   </si>
   <si>
-    <t>MD</t>
-  </si>
-  <si>
     <t>Frankfurt - An der Welle 5</t>
   </si>
   <si>
@@ -320,9 +296,6 @@
     <t>DE</t>
   </si>
   <si>
-    <t>HE</t>
-  </si>
-  <si>
     <t>Prague - Pernerova 691/42</t>
   </si>
   <si>
@@ -338,9 +311,6 @@
     <t>11-SEP-20 08.08.31.251942000 PM</t>
   </si>
   <si>
-    <t>ON</t>
-  </si>
-  <si>
     <t>Sao Paulo - Avenida das Nacoes Unidas</t>
   </si>
   <si>
@@ -350,9 +320,6 @@
     <t>BR</t>
   </si>
   <si>
-    <t>SP</t>
-  </si>
-  <si>
     <t>Sydney - 1 O'Connell Street</t>
   </si>
   <si>
@@ -362,9 +329,6 @@
     <t>AU</t>
   </si>
   <si>
-    <t>NS</t>
-  </si>
-  <si>
     <t>Sydney AU Sydney - 1 O'Connell Street</t>
   </si>
   <si>
@@ -384,9 +348,6 @@
   </si>
   <si>
     <t>AR</t>
-  </si>
-  <si>
-    <t>BA</t>
   </si>
   <si>
     <t>Dubai - DIFC Precinct Bldg 3</t>
@@ -758,8 +719,8 @@
   <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H12" sqref="H12:H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1021,38 +982,38 @@
         <v>43</v>
       </c>
       <c r="H12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" t="s">
         <v>45</v>
       </c>
-      <c r="B13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" t="s">
-        <v>46</v>
-      </c>
       <c r="E13" t="s">
         <v>33</v>
       </c>
       <c r="F13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G13" t="s">
         <v>43</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B14" t="s">
         <v>32</v>
@@ -1061,24 +1022,24 @@
         <v>33</v>
       </c>
       <c r="D14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E14" t="s">
         <v>33</v>
       </c>
       <c r="F14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G14" t="s">
         <v>43</v>
       </c>
       <c r="H14" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B15" t="s">
         <v>32</v>
@@ -1087,24 +1048,24 @@
         <v>33</v>
       </c>
       <c r="D15" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E15" t="s">
         <v>33</v>
       </c>
       <c r="F15" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G15" t="s">
         <v>43</v>
       </c>
       <c r="H15" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B16" t="s">
         <v>32</v>
@@ -1113,24 +1074,24 @@
         <v>33</v>
       </c>
       <c r="D16" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E16" t="s">
         <v>33</v>
       </c>
       <c r="F16" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G16" t="s">
         <v>43</v>
       </c>
       <c r="H16" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B17" t="s">
         <v>32</v>
@@ -1139,24 +1100,24 @@
         <v>33</v>
       </c>
       <c r="D17" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E17" t="s">
         <v>33</v>
       </c>
       <c r="F17" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G17" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H17" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B18" t="s">
         <v>32</v>
@@ -1165,24 +1126,24 @@
         <v>33</v>
       </c>
       <c r="D18" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E18" t="s">
         <v>33</v>
       </c>
       <c r="F18" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G18" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="H18" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B19" t="s">
         <v>32</v>
@@ -1191,24 +1152,24 @@
         <v>33</v>
       </c>
       <c r="D19" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E19" t="s">
         <v>33</v>
       </c>
       <c r="F19" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G19" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="H19" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B20" t="s">
         <v>32</v>
@@ -1217,24 +1178,24 @@
         <v>33</v>
       </c>
       <c r="D20" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E20" t="s">
         <v>33</v>
       </c>
       <c r="F20" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="G20" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H20" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B21" t="s">
         <v>32</v>
@@ -1243,24 +1204,24 @@
         <v>33</v>
       </c>
       <c r="D21" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E21" t="s">
         <v>33</v>
       </c>
       <c r="F21" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G21" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="H21" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B22" t="s">
         <v>32</v>
@@ -1269,24 +1230,24 @@
         <v>33</v>
       </c>
       <c r="D22" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E22" t="s">
         <v>33</v>
       </c>
       <c r="F22" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G22" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H22" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B23" t="s">
         <v>32</v>
@@ -1295,24 +1256,24 @@
         <v>33</v>
       </c>
       <c r="D23" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E23" t="s">
         <v>33</v>
       </c>
       <c r="F23" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="G23" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H23" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B24" t="s">
         <v>32</v>
@@ -1321,24 +1282,24 @@
         <v>33</v>
       </c>
       <c r="D24" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E24" t="s">
         <v>33</v>
       </c>
       <c r="F24" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G24" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="H24" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B25" t="s">
         <v>32</v>
@@ -1347,24 +1308,24 @@
         <v>33</v>
       </c>
       <c r="D25" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E25" t="s">
         <v>33</v>
       </c>
       <c r="F25" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="G25" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="H25" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B26" t="s">
         <v>32</v>
@@ -1373,24 +1334,24 @@
         <v>33</v>
       </c>
       <c r="D26" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E26" t="s">
         <v>33</v>
       </c>
       <c r="F26" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="G26" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="H26" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B27" t="s">
         <v>32</v>
@@ -1399,24 +1360,24 @@
         <v>33</v>
       </c>
       <c r="D27" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="E27" t="s">
         <v>33</v>
       </c>
       <c r="F27" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="G27" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="H27" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B28" t="s">
         <v>32</v>
@@ -1425,24 +1386,24 @@
         <v>33</v>
       </c>
       <c r="D28" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="E28" t="s">
         <v>33</v>
       </c>
       <c r="F28" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="G28" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="H28" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B29" t="s">
         <v>32</v>
@@ -1451,24 +1412,24 @@
         <v>33</v>
       </c>
       <c r="D29" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E29" t="s">
         <v>33</v>
       </c>
       <c r="F29" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="G29" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="H29" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="B30" t="s">
         <v>32</v>
@@ -1477,24 +1438,24 @@
         <v>33</v>
       </c>
       <c r="D30" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="E30" t="s">
         <v>33</v>
       </c>
       <c r="F30" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="G30" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="H30" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="B31" t="s">
         <v>32</v>
@@ -1503,24 +1464,24 @@
         <v>33</v>
       </c>
       <c r="D31" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="E31" t="s">
         <v>33</v>
       </c>
       <c r="F31" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="G31" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H31" t="s">
-        <v>105</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="B32" t="s">
         <v>32</v>
@@ -1529,24 +1490,24 @@
         <v>33</v>
       </c>
       <c r="D32" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="E32" t="s">
         <v>33</v>
       </c>
       <c r="F32" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="G32" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="H32" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="B33" t="s">
         <v>32</v>
@@ -1555,50 +1516,50 @@
         <v>33</v>
       </c>
       <c r="D33" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="E33" t="s">
         <v>33</v>
       </c>
       <c r="F33" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="G33" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="H33" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="B34" t="s">
         <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="D34" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="E34" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="F34" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="G34" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="H34" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="B35" t="s">
         <v>32</v>
@@ -1607,24 +1568,24 @@
         <v>33</v>
       </c>
       <c r="D35" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="E35" t="s">
         <v>33</v>
       </c>
       <c r="F35" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="G35" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="H35" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="B36" t="s">
         <v>32</v>
@@ -1633,19 +1594,19 @@
         <v>33</v>
       </c>
       <c r="D36" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="E36" t="s">
         <v>33</v>
       </c>
       <c r="F36" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="G36" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="H36" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -1663,7 +1624,7 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
